--- a/medicine/Psychotrope/Austin_de_Croze/Austin_de_Croze.xlsx
+++ b/medicine/Psychotrope/Austin_de_Croze/Austin_de_Croze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austin de Croze, de son nom Joseph Augustin de Croze-Magnan (1866-1937), est un écrivain français, folkloriste, musicien, journaliste, auteur gastronomique et œnologue fondateur du mouvement de la cuisine régionaliste[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austin de Croze, de son nom Joseph Augustin de Croze-Magnan (1866-1937), est un écrivain français, folkloriste, musicien, journaliste, auteur gastronomique et œnologue fondateur du mouvement de la cuisine régionaliste.
 </t>
         </is>
       </c>
@@ -511,16 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme l'indique Lauren Reches, peu d'informations biographiques sont disponibles sur A. de Croze « même s'il fut ami avec des personnalités telles que Jules Bois, Verlaine, Huysmans, Saint-Pol-Roux et le compositeur Maurice Ravel » [2].
-Joseph Augustin de Croze-Magnan est le fils de Ferdinand de Croze et de Jeanne Lombard son épouse, pianiste et compositeur, maître de chapelle de la cour de Parme [3]. Il naît à Lyon le 17 décembre 1866.
-Il fait des séjours en Angleterre comme correspondant de journaux français, y donne des conférences (1893) [4]. Le 23 septembre 1897 à Lewisham Kent, il épouse Florence Sarah Morse (née vers 1858), citoyenne britannique (orthographiée F. S. Moïse dans la presse française [5]). Ils auront 2 enfants, Paulette Emily (née le 14 juin 1899) et Gaspard (né le 17 juin 1901).
-En 1912 à Londres, il épouse Henriette Jeanne Bergouignan, écrivain et conférencière connue sous le nom de J.A. Berjane [6]. En 1913, ses conférences londoniennes portent sur le tourisme et la gastronomie régionale en France, elles sont suivies de dégustations et de ventes de spécialités françaises [7]. En 1917, il est à l'origine de la Classical French Theatre Association destinée à représenter des œuvres théâtrales françaises à Londres [8].
-En 1923 et 24 il préside Section Gastronomique Régionalise du Salon d'Automne Paris [9]. Il publie en 1931 une partie de ses travaux en anglais à destination des touristes anglais en France [2]. Il réside 51 rue Galilée, Paris jusqu'à 1933 et à Biarritz [10].
-Après trois années de souffrance peu actives, Augustin de Croze meurt d'emphysème à Lyon le 1er septembre 1937, dans le dénuement[11],[12],[13],[14].
-Un gastronome maigre, sec et nerveux...
-En 1931, dans La Femme de France du 21 juin, Alin Lambreaux qui imaginait Austin de Croze « gentilhomme paysan avec un ventre comme un tonneau et la bouche comme une cuve » le décrit ainsi :  « il n'est ni gros ni grand, mais au contraire sec et nerveux, tout en angles. Le visage voltairien... voyageur curieux et gourmand, il a parcouru en tous sens la vaste terre et vous entretient ...de la cuisine chinoise, des cuisines nordiques ou des traditions de nos provinces. »[15]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme l'indique Lauren Reches, peu d'informations biographiques sont disponibles sur A. de Croze « même s'il fut ami avec des personnalités telles que Jules Bois, Verlaine, Huysmans, Saint-Pol-Roux et le compositeur Maurice Ravel » .
+Joseph Augustin de Croze-Magnan est le fils de Ferdinand de Croze et de Jeanne Lombard son épouse, pianiste et compositeur, maître de chapelle de la cour de Parme . Il naît à Lyon le 17 décembre 1866.
+Il fait des séjours en Angleterre comme correspondant de journaux français, y donne des conférences (1893) . Le 23 septembre 1897 à Lewisham Kent, il épouse Florence Sarah Morse (née vers 1858), citoyenne britannique (orthographiée F. S. Moïse dans la presse française ). Ils auront 2 enfants, Paulette Emily (née le 14 juin 1899) et Gaspard (né le 17 juin 1901).
+En 1912 à Londres, il épouse Henriette Jeanne Bergouignan, écrivain et conférencière connue sous le nom de J.A. Berjane . En 1913, ses conférences londoniennes portent sur le tourisme et la gastronomie régionale en France, elles sont suivies de dégustations et de ventes de spécialités françaises . En 1917, il est à l'origine de la Classical French Theatre Association destinée à représenter des œuvres théâtrales françaises à Londres .
+En 1923 et 24 il préside Section Gastronomique Régionalise du Salon d'Automne Paris . Il publie en 1931 une partie de ses travaux en anglais à destination des touristes anglais en France . Il réside 51 rue Galilée, Paris jusqu'à 1933 et à Biarritz .
+Après trois années de souffrance peu actives, Augustin de Croze meurt d'emphysème à Lyon le 1er septembre 1937, dans le dénuement.
 </t>
         </is>
       </c>
@@ -546,18 +558,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Un gastronome maigre, sec et nerveux...</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1931, dans La Femme de France du 21 juin, Alin Lambreaux qui imaginait Austin de Croze « gentilhomme paysan avec un ventre comme un tonneau et la bouche comme une cuve » le décrit ainsi :  « il n'est ni gros ni grand, mais au contraire sec et nerveux, tout en angles. Le visage voltairien... voyageur curieux et gourmand, il a parcouru en tous sens la vaste terre et vous entretient ...de la cuisine chinoise, des cuisines nordiques ou des traditions de nos provinces. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Austin_de_Croze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Austin_de_Croze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gastronomie régionale
-A. de Croze est passé à la postérité pour ses écrits gastronomiques davantage que pour ses recherches sur le folklore, la musique, ou ses analyses politiques (ne pas confondre A. de Croze avec un de Crozé membre d'Action française de la Mayenne, Curnonsky écrit dans le Bulletin officiel de l'Association des gastronomes régionalistes de 1933 « le centre préfère la cuisine régionale »)[16]. Certains le considèrent comme un « précurseur du mouvement de patrimonialisation de l'alimentation » qui se prolongera avec le défunt Inventaire du patrimoine culinaire de France du Conseil national des arts culinaires[17],[18]. Son souvenir est évoqué dans les débats sur la mixité de la cuisine française [19], le thème de la cuisine patrimoine reste actuel [20]. Mais comme l'écrit Bénédict Beaugé son approche constante reste ethnographique [21].
-Comme Curnonsky et Marcel Rouff dont il est proche, il inventorie et consigne des recettes et les produits régionaux, en particulier dans ses 1400 recettes locales des Plats régionaux de France (1928). Curnonsky écrit « après la guerre de 1914-18 Louis Forest, Austin de Croze, Marcel Rouff, Maurice des Ombiaux et moi avons créé la presse gastronomique et touristique »[22].
-Lors des salons de 1923-24, avec l'aide des syndicats d'initiatives locaux intéressés au développement du tourisme [23], il a l’idée, « pour l’époque étonnante et presque provocatrice, d’inviter à Paris des cuisiniers provinciaux au restaurant de la Tour Eiffel... le plus surprenant, on y retrouve ce qui va devenir les grandes dynasties françaises de cuisiniers : le père de Paul Bocuse, le père d’André Daguin, un grand oncle Darroze » [24]. Pendant les 44 Journées Régionales ces chefs exécutent des plats du terroir qui sont acclamés par les parisiens [25]. « L'élan fut si bien donnée, écrit de Croze, que quantité de restaurants parisiens sont devenus régionalistes... » [26]. « Ces deux initiatives font d’Austin de Croze un des précurseurs du tourisme gastronomique » écrit Jacinthe Bessière [27].
-Quand Marcel Rouff (qui décède en 1936, un an avant lui) et Curnonsky abandonnent La France Gastronomique, après 28 volumes sur les 32 prévus à l'origine, il rédige, avec ce dernier, une compilation des recettes et spécialités de l'énorme travail : Le Trésor gastronomique de France, Répertoire complet des spécialités gourmandes des 32 provinces françaises [22]. Cet ouvrage est qualifié par Jean-Pierre Poulain de « premier inventaire systématique des cuisines régionales françaises » [28].
-Le régionalisme en musique
-Il faut sans doute mettre en rapport sa découverte du régionalisme avec le retour aux sources musicales régionales de la fin du XIXéme siècle. A. de Croze découvre la Corse lors de son service militaire. Entre 1885 et 1888 il recueille directement des chants populaires en parcourant l’île [30]. Il est sous le charme de ces voix des « poétesses villageoises qui, à notre entrée dans la maison présentait une fleur, un verre d’eau et nous adressaient une strophe de circonstance » et par la capacité des corses à s'exprimer spontanément de façon rythmées. La rime des chants corses, qui alterne 3 fois facilite selon lui l’improvisation [31]. En janvier 1896, il donne 3 conférences au théâtre de la Bodinière, illustrées par des chants Corses que Maurice Ravel (qui sort du Conservatoire) harmonise et orchestre à sa demande et chantés par Mlle Irma Perrot [32]. Il publie en 1911 une monographie sur les chants corses, tandis que de son côté Ravel se passionne pour la musique ibérique [30]. En 1919, il publie avec Ravel 43 chansons populaires yougoslaves.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La gastronomie régionale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. de Croze est passé à la postérité pour ses écrits gastronomiques davantage que pour ses recherches sur le folklore, la musique, ou ses analyses politiques (ne pas confondre A. de Croze avec un de Crozé membre d'Action française de la Mayenne, Curnonsky écrit dans le Bulletin officiel de l'Association des gastronomes régionalistes de 1933 « le centre préfère la cuisine régionale »). Certains le considèrent comme un « précurseur du mouvement de patrimonialisation de l'alimentation » qui se prolongera avec le défunt Inventaire du patrimoine culinaire de France du Conseil national des arts culinaires,. Son souvenir est évoqué dans les débats sur la mixité de la cuisine française , le thème de la cuisine patrimoine reste actuel . Mais comme l'écrit Bénédict Beaugé son approche constante reste ethnographique .
+Comme Curnonsky et Marcel Rouff dont il est proche, il inventorie et consigne des recettes et les produits régionaux, en particulier dans ses 1400 recettes locales des Plats régionaux de France (1928). Curnonsky écrit « après la guerre de 1914-18 Louis Forest, Austin de Croze, Marcel Rouff, Maurice des Ombiaux et moi avons créé la presse gastronomique et touristique ».
+Lors des salons de 1923-24, avec l'aide des syndicats d'initiatives locaux intéressés au développement du tourisme , il a l’idée, « pour l’époque étonnante et presque provocatrice, d’inviter à Paris des cuisiniers provinciaux au restaurant de la Tour Eiffel... le plus surprenant, on y retrouve ce qui va devenir les grandes dynasties françaises de cuisiniers : le père de Paul Bocuse, le père d’André Daguin, un grand oncle Darroze » . Pendant les 44 Journées Régionales ces chefs exécutent des plats du terroir qui sont acclamés par les parisiens . « L'élan fut si bien donnée, écrit de Croze, que quantité de restaurants parisiens sont devenus régionalistes... » . « Ces deux initiatives font d’Austin de Croze un des précurseurs du tourisme gastronomique » écrit Jacinthe Bessière .
+Quand Marcel Rouff (qui décède en 1936, un an avant lui) et Curnonsky abandonnent La France Gastronomique, après 28 volumes sur les 32 prévus à l'origine, il rédige, avec ce dernier, une compilation des recettes et spécialités de l'énorme travail : Le Trésor gastronomique de France, Répertoire complet des spécialités gourmandes des 32 provinces françaises . Cet ouvrage est qualifié par Jean-Pierre Poulain de « premier inventaire systématique des cuisines régionales françaises » .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Austin_de_Croze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Austin_de_Croze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le régionalisme en musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut sans doute mettre en rapport sa découverte du régionalisme avec le retour aux sources musicales régionales de la fin du XIXéme siècle. A. de Croze découvre la Corse lors de son service militaire. Entre 1885 et 1888 il recueille directement des chants populaires en parcourant l’île . Il est sous le charme de ces voix des « poétesses villageoises qui, à notre entrée dans la maison présentait une fleur, un verre d’eau et nous adressaient une strophe de circonstance » et par la capacité des corses à s'exprimer spontanément de façon rythmées. La rime des chants corses, qui alterne 3 fois facilite selon lui l’improvisation . En janvier 1896, il donne 3 conférences au théâtre de la Bodinière, illustrées par des chants Corses que Maurice Ravel (qui sort du Conservatoire) harmonise et orchestre à sa demande et chantés par Mlle Irma Perrot . Il publie en 1911 une monographie sur les chants corses, tandis que de son côté Ravel se passionne pour la musique ibérique . En 1919, il publie avec Ravel 43 chansons populaires yougoslaves.
 </t>
         </is>
       </c>
